--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>44.4</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -670,26 +670,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ленинский РС г.Краснодар</t>
+          <t>Ш декабря вн</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ленинский РС г.Краснодар</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -700,22 +700,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ш декабря вн</t>
+          <t>пОООААОНННАНН</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2-3589/2024</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -730,22 +730,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>document_case_number</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>пОООААОНННАНН</t>
+          <t>ан мая 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2-3589/2024</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -760,56 +760,56 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>document_date</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ан мая 2025</t>
+          <t>ФС052185184</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>ФС052185184</t>
         </is>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>772000/19079</t>
+          <t>355554</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>document_number</t>
+          <t>claimer_entity_name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ФС052185184</t>
+          <t>АО "АльфаСтрахование"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ФС052185184</t>
+          <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -820,22 +820,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>claimer_entity_name</t>
+          <t>debtor_entity_inn</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>АО "АльфаСтрахование"</t>
+          <t>1831081018</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
+          <t>1000001018</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -850,22 +850,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>debtor_entity_inn</t>
+          <t>debtor_entity_name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1831081018</t>
-        </is>
-      </c>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1000001018</t>
+          <t>ООО ТПК "ВОСТОК-РЕСУРС"</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -880,22 +876,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>debtor_entity_name</t>
+          <t>debtor_entity_type</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>03.Должник - 01.Должник - 01.Тип должника</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ООО ТПК "ВОСТОК-РЕСУРС"</t>
+          <t>Юридическое лицо</t>
         </is>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -906,26 +906,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>debtor_entity_type</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 01.Тип должника</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Юридическое лицо</t>
+          <t>П марта 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Юридическое лицо</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -936,26 +936,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>АС Удмуртской Респ</t>
+          <t>17170/2023</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>АС Удмуртской Респ</t>
+          <t>А71-17170/2023</t>
         </is>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>П марта 2025</t>
+          <t>15ная 90059</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -996,52 +996,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>document_case_number</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17170/2023</t>
+          <t>ФС045577189</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>А71-17170/2023</t>
+          <t>ФС045577189</t>
         </is>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>355554</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>document_date</t>
+          <t>claimer_entity_name</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15ная 90059</t>
+          <t>ООЗПИ "АМПАРО", адрес</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1051,27 +1051,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>355554</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>document_number</t>
+          <t>debtor_entity_inn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ФС045577189</t>
+          <t>7743578549</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ФС045577189</t>
+          <t>7743578549</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>claimer_entity_name</t>
+          <t>debtor_entity_name</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ООЗПИ "АМПАРО", адрес</t>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1116,22 +1116,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>debtor_entity_inn</t>
+          <t>debtor_entity_type</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 01.Тип должника</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7743578549</t>
+          <t>Юридическое лицо</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7743578549</t>
+          <t>Юридическое лицо</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1146,22 +1146,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>debtor_entity_name</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>АО "ЧЕРИ Автомобили РУС"</t>
+          <t>февраля..</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1176,22 +1176,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>debtor_entity_type</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 01.Тип должника</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Юридическое лицо</t>
+          <t>2-785/2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Юридическое лицо</t>
+          <t>2-785/2025</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1206,26 +1206,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Центральный РС г. Тольятти</t>
+          <t>21.04.2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Центральный РС г. Тольятти</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1236,115 +1236,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>февраля..</t>
+          <t>ФС033803038</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>ФС033803038</t>
         </is>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>776000/31120</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>document_case_number</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2-785/2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2-785/2025</t>
-        </is>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>776000/31120</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>document_date</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>21.04.2025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>776000/31120</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>document_number</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ФС033803038</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ФС033803038</t>
-        </is>
-      </c>
-      <c r="F28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1402,7 +1312,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1412,7 +1322,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1422,7 +1332,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1432,7 +1342,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1450,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,40 +1376,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>doc_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>parent_file_names</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>package_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>attribute_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>rus_attribute_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>text_extracted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>text_normalized</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>text_verification</t>
         </is>
@@ -1513,40 +1428,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>80.3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ОО ‹ «Об эщество защиты прав потребителей «Фемида», адрес</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ООО " Об эщество защиты прав потребителей " Фемида" , адрес</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>ККОО "ОБЩЕСТВО ЗАЩИТЫ ПРАВ
 ПОТРЕБИТЕЛЕЙ "ФЕМИДА"</t>
@@ -1561,40 +1481,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -1608,28 +1533,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>7707111111</t>
         </is>
@@ -1643,28 +1573,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>770000001</t>
         </is>
@@ -1678,40 +1613,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>83.15</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
@@ -1725,40 +1665,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -1772,40 +1717,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>96.1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ленинский районный суд г.Краснодар</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Ленинский РС г.Краснодар</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Ленинский РС г.Краснодар</t>
         </is>
@@ -1819,40 +1769,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>54.37</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ш! декабря вн</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Ш декабря вн</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
@@ -1866,40 +1821,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>пОООААОНННАНН</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>пОООААОНННАНН</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>2-3589/2024</t>
         </is>
@@ -1913,36 +1873,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1956,32 +1921,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1995,40 +1965,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2042,36 +2017,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2085,36 +2065,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2128,40 +2113,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>93.9</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ан мая 2025</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ан мая 2025</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
@@ -2175,36 +2165,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2218,32 +2213,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2257,28 +2257,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -2292,40 +2297,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ФС № 052185184</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ФС052185184</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ФС052185184</t>
         </is>
@@ -2339,40 +2349,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -2386,40 +2401,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -2433,40 +2453,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
@@ -2480,40 +2505,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
@@ -2527,40 +2557,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>96.2</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
@@ -2574,28 +2609,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>200000001</t>
         </is>
@@ -2609,40 +2649,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>95.13</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>общественная организация «Общество защиты прав потребителей «Фемида»</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>общественная организация " Общество защиты прав потребителей " Фемида"</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ККОО "ОБЩЕСТВО ЗАЩИТЫ ПРАВ
 ПОТРЕБИТЕЛЕЙ "ФЕМИДА"</t>
@@ -2657,40 +2702,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>79282288282</t>
         </is>
@@ -2704,40 +2754,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>51.4</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>30101810500000000207</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>30101810500000000207</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>40703810000000000121</t>
         </is>
@@ -2751,40 +2806,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -2798,40 +2858,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>73.6</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2845,40 +2910,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2892,36 +2962,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2935,40 +3010,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>94.9</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Акционерное общество "АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>АО "АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
@@ -2982,40 +3062,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -3029,40 +3114,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>96.6</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>1831081018</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>1831081018</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>1000001018</t>
         </is>
@@ -3076,28 +3166,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>183101001</t>
         </is>
@@ -3111,28 +3206,33 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
         <is>
           <t>ООО ТПК "ВОСТОК-РЕСУРС"</t>
         </is>
@@ -3146,40 +3246,45 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -3193,40 +3298,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>96.12</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Арбитражный суд Удмуртской Республики</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>АС Удмуртской Респ</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>АС Удмуртской Респ</t>
         </is>
@@ -3240,40 +3350,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>29.83</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>П „марта 2025</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>П марта 2025</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
@@ -3287,40 +3402,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>21.3</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>17170/2023_</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>17170/2023</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>А71-17170/2023</t>
         </is>
@@ -3334,32 +3454,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3373,36 +3498,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3416,36 +3546,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3459,36 +3594,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3502,40 +3642,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3549,40 +3694,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>29.15</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>15%ная 90059</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>15ная 90059</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
@@ -3596,36 +3746,41 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3639,32 +3794,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3678,28 +3838,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -3713,40 +3878,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>84.33</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ФС № 045577189</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ФС045577189</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>ФС045577189</t>
         </is>
@@ -3760,40 +3930,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -3807,40 +3982,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -3854,28 +4034,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
         <is>
           <t>115280,
 Г.МОСКВА,
@@ -3895,28 +4080,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
         <is>
           <t>044525593</t>
         </is>
@@ -3930,40 +4120,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>65.15</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
@@ -3977,40 +4172,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>56.6</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
@@ -4024,40 +4224,45 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>81.95</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>АО «АльфаСтрахование»</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>АО " АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
@@ -4071,40 +4276,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>79608182786</t>
         </is>
@@ -4118,28 +4328,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
         <is>
           <t>40701810301850000366</t>
         </is>
@@ -4153,40 +4368,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4200,40 +4420,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>88.1</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4247,36 +4472,41 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4290,40 +4520,45 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4337,40 +4572,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>87.07</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>ООЗПИ "АМПАРО", адрес</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>ООЗПИ "АМПАРО", адрес</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
         </is>
@@ -4384,40 +4624,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4431,40 +4676,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>89.0</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
@@ -4478,28 +4728,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
         <is>
           <t>774301001</t>
         </is>
@@ -4513,40 +4768,45 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>95.7</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ Автомобили РУС"</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ Автомобили РУС"</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
         </is>
@@ -4560,40 +4820,45 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4607,40 +4872,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>96.26</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Центральный районный суд г. Тольятти</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Центральный РС г. Тольятти</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Центральный РС г. Тольятти</t>
         </is>
@@ -4654,40 +4924,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>22.7</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>февраля..</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>февраля..</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
@@ -4701,40 +4976,45 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>76.7</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
@@ -4748,32 +5028,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4787,36 +5072,41 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4830,36 +5120,41 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4873,36 +5168,41 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4916,40 +5216,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4963,40 +5268,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>96.53</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>21 апреля 2025</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>21.04.2025</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
@@ -5010,36 +5320,41 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5053,32 +5368,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5092,28 +5412,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -5127,40 +5452,45 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>91.83</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>ФС № 033803038</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>ФС033803038</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>ФС033803038</t>
         </is>
@@ -5174,40 +5504,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -5221,40 +5556,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -5268,28 +5608,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
         <is>
           <t>445040,
 САМАРСКАЯ ОБЛАСТЬ,
@@ -5308,40 +5653,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>96.5</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
@@ -5355,40 +5705,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>90.2</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
@@ -5402,28 +5757,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>632101001</t>
         </is>
@@ -5437,40 +5797,45 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>94.6</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Сотвапрвапрой Вавпрапрны Никапврпаврвны</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Сотвапрвапрой Вавпрапрны Никапврпаврвны</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
         </is>
@@ -5484,40 +5849,45 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
@@ -5531,40 +5901,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
@@ -5578,40 +5953,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -5625,40 +6005,45 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5672,40 +6057,45 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>Да</t>
         </is>

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>37.5</v>
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>11.12.2024</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -745,7 +745,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>30.05.2025</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -921,7 +921,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>11.03.2025</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -981,7 +981,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>03.02.2025</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>21.04.2025</t>
         </is>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1292,7 +1292,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1312,17 +1312,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 04.Номер дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_report.xlsx
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45874</v>
+        <v>45897</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>41.7</v>
+        <v>46.9</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,6 +1255,246 @@
         </is>
       </c>
       <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>debtor_entity_inn</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>debtor_entity_name</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
+        </is>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>debtor_entity_type</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>03.Должник - 01.Должник - 01.Тип должника</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>document_case_date</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01.Документ-основание - 05.Дата дела</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>03.02.2025</t>
+        </is>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>document_case_number</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01.Документ-основание - 04.Номер дела</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>document_date</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01.Документ-основание - 03.Дата документа</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>document_number</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01.Документ-основание - 02.Номер документа</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+      <c r="F33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1296,7 +1536,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1306,17 +1546,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 04.Номер дела</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1332,7 +1572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 02.Наименование</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1360,7 +1600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6101,6 +6341,1511 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>debtor_entity_inn</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>05. ИНН/КИО</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>debtor_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>06. КПП</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>774301001</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>debtor_entity_name</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>95.7</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>debtor_entity_type</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>01. Тип должника</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>document_authority</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>07. Орган, выдавший документ</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Центральный районный суд г. Тольятти</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>document_case_date</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>06. Дата дела</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>document_case_number</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>05. Номер дела</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>76.7</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>document_date</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>03. Дата документа</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>21 апреля 2025</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>document_marks</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>10. Отметки на 7-ой стр.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>document_number</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02. Номер документа</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ФС № 033803038</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>document_process</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>09. Процесс</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>document_type</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>01. Тип документа</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_address</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>05. Адрес</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>445040,
+САМАРСКАЯ ОБЛАСТЬ,
+Г ТОЛЬЯТТИ,
+УЛ СВЕРДЛОВА,
+Д. 7Д,
+КВ. 66</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_bik</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>07. БИК</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>96.5</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_inn</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>03. ИНН</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>90.2</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>04. КПП</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>632101001</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>02. Наименование получателя</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>94.6</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_phone</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>06. Телефон</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_transfer_account</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>08. Расчетный счет</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>4011111111111111111114</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>recovery_document_power_of_attorney</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>02. Наличие доверенности</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>recovery_document_signature_of_the_applicant</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>03. Подпись заявителя</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
